--- a/Semana 3.xlsx
+++ b/Semana 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF712B5D-F1D1-4EFC-AAB9-98942950B2C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7F6210-D425-4406-B100-81F18B7AA86B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{5D7225A7-0E7E-4FB5-B772-0D709E226579}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Freddy</t>
   </si>
@@ -40,14 +40,37 @@
   </si>
   <si>
     <t>male</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Genero</t>
+  </si>
+  <si>
+    <t>Clase</t>
+  </si>
+  <si>
+    <t>Superviviente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -63,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -71,12 +94,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,79 +432,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61866FBB-D7FE-4815-8837-650D9B359ABB}">
-  <dimension ref="B1:F4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
+      <c r="B2">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="B4">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="B5">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="E4">
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="E5">
         <v>1</v>
       </c>
     </row>
